--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C61A8B-EB15-439D-95D5-E1663342C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD938D-E351-499A-A711-DEF474423D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="72" yWindow="0" windowWidth="11292" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Location</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>Upslope outcrop thickness</t>
+  </si>
+  <si>
+    <t>Hs3.4</t>
+  </si>
+  <si>
+    <t>Hs3.3</t>
+  </si>
+  <si>
+    <t>Hs3.2</t>
+  </si>
+  <si>
+    <t>Hs3.1</t>
+  </si>
+  <si>
+    <t>Hs3.5</t>
+  </si>
+  <si>
+    <t>Hs3.6</t>
+  </si>
+  <si>
+    <t>Hs3.7</t>
+  </si>
+  <si>
+    <t>Hs3.8</t>
+  </si>
+  <si>
+    <t>Hs3.9</t>
+  </si>
+  <si>
+    <t>Hs3.10</t>
+  </si>
+  <si>
+    <t>Hs3.11</t>
+  </si>
+  <si>
+    <t>Wpt 10/26/21</t>
+  </si>
+  <si>
+    <t>LC3.steep.1</t>
+  </si>
+  <si>
+    <t>LC3.steep.2</t>
+  </si>
+  <si>
+    <t>LC3.steep.3</t>
+  </si>
+  <si>
+    <t>Bedrock</t>
+  </si>
+  <si>
+    <t>LC3.steep.4</t>
   </si>
 </sst>
 </file>
@@ -423,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +532,142 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>125.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>51.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>113.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>69.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>46.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>61.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>111.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>194.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>464.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>336.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>259.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>227.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>185.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD938D-E351-499A-A711-DEF474423D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA474B05-53ED-4DF9-AB44-A15DC353C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="11292" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Location</t>
   </si>
@@ -123,16 +123,102 @@
   </si>
   <si>
     <t>LC3.steep.4</t>
+  </si>
+  <si>
+    <t>depth 1 (cm)</t>
+  </si>
+  <si>
+    <t>depth 2 (cm)</t>
+  </si>
+  <si>
+    <t>depth 3 (cm)</t>
+  </si>
+  <si>
+    <t>Hs1.1</t>
+  </si>
+  <si>
+    <t>Hs1.2</t>
+  </si>
+  <si>
+    <t>Hs1.1.1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hs1.1.2</t>
+  </si>
+  <si>
+    <t>Hs1.1.3</t>
+  </si>
+  <si>
+    <t>Bedding plane widths (cm)</t>
+  </si>
+  <si>
+    <t>Depth to saprolite</t>
+  </si>
+  <si>
+    <t>28, 10, 9, 30</t>
+  </si>
+  <si>
+    <t>10, 5, 35, 1, 5, 3, 18, 10, 9, 0.5</t>
+  </si>
+  <si>
+    <t>Depth to Bedrock (cm)</t>
+  </si>
+  <si>
+    <t>greater than 80, topped by 23, 40, 30</t>
+  </si>
+  <si>
+    <t>no saprolite</t>
+  </si>
+  <si>
+    <t>35, 5, 11</t>
+  </si>
+  <si>
+    <t>38 maybe greater</t>
+  </si>
+  <si>
+    <t>ONLY BEDROCK</t>
+  </si>
+  <si>
+    <t>6, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>EXPOSED BEDROCK</t>
+  </si>
+  <si>
+    <t>12, 25, 22, 9, 8</t>
+  </si>
+  <si>
+    <t>HS1.1500.1</t>
+  </si>
+  <si>
+    <t>HS1.1500.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,10 +232,96 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -158,8 +330,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,201 +657,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>125.59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="H4">
         <v>91.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>51.07</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="H6">
         <v>25.18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="H7">
         <v>113.63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>69.83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>46.29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
         <v>24.71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>29.38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12">
         <v>61.99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>111.31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="H14">
         <v>194.47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="H15">
         <v>464.36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="H16">
         <v>336.62</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="H17">
         <v>259.38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>227.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
-        <v>227.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
+      <c r="H20">
         <v>185.16</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>6.5</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA474B05-53ED-4DF9-AB44-A15DC353C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2AF35C-2C92-4FEB-9E89-60C4A3F39EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="7740" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Location</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>HS1.1500.2</t>
+  </si>
+  <si>
+    <t>cccc</t>
   </si>
 </sst>
 </file>
@@ -330,19 +333,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,36 +662,37 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -702,23 +705,23 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -755,8 +758,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3">
@@ -768,9 +771,15 @@
       <c r="H3">
         <v>125.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="I3">
+        <v>54.46</v>
+      </c>
+      <c r="N3">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -785,9 +794,15 @@
       <c r="H4">
         <v>91.38</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="I4">
+        <v>90.6</v>
+      </c>
+      <c r="N4">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -802,9 +817,15 @@
       <c r="H5">
         <v>51.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="I5">
+        <v>127.61</v>
+      </c>
+      <c r="N5">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -816,9 +837,15 @@
       <c r="H6">
         <v>25.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="I6">
+        <v>151.08000000000001</v>
+      </c>
+      <c r="N6">
+        <v>26.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
@@ -830,9 +857,15 @@
       <c r="H7">
         <v>113.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="I7">
+        <v>394.08</v>
+      </c>
+      <c r="N7">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -847,10 +880,19 @@
       <c r="H8">
         <v>69.83</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="I8">
+        <v>439.02</v>
+      </c>
+      <c r="N8">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -861,9 +903,15 @@
       <c r="H9">
         <v>46.29</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="I9">
+        <v>462.8</v>
+      </c>
+      <c r="N9">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -875,9 +923,15 @@
       <c r="H10">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="I10">
+        <v>484.6</v>
+      </c>
+      <c r="N10">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -889,9 +943,15 @@
       <c r="H11">
         <v>29.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="I11">
+        <v>469.16</v>
+      </c>
+      <c r="N11">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
@@ -903,9 +963,15 @@
       <c r="H12">
         <v>61.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="I12">
+        <v>438.28</v>
+      </c>
+      <c r="N12">
+        <v>30.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
@@ -917,17 +983,29 @@
       <c r="H13">
         <v>111.31</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="I13">
+        <v>395.22</v>
+      </c>
+      <c r="N13">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14">
         <v>194.47</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="I14">
+        <v>322.16000000000003</v>
+      </c>
+      <c r="N14">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F15">
@@ -936,9 +1014,15 @@
       <c r="H15">
         <v>464.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="I15">
+        <v>51.29</v>
+      </c>
+      <c r="N15">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16">
@@ -950,9 +1034,15 @@
       <c r="H16">
         <v>336.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="I16">
+        <v>85.64</v>
+      </c>
+      <c r="N16">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C17">
@@ -964,9 +1054,15 @@
       <c r="H17">
         <v>259.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="I17">
+        <v>171.43</v>
+      </c>
+      <c r="N17">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F18">
@@ -975,17 +1071,29 @@
       <c r="H18">
         <v>227.07</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="I18">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="N18">
+        <v>24.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H20">
         <v>185.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="I20">
+        <v>100.05</v>
+      </c>
+      <c r="N20">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B22">
@@ -1001,8 +1109,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B23">
@@ -1018,8 +1126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
@@ -1035,8 +1143,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
@@ -1052,8 +1160,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
@@ -1063,8 +1171,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -1077,16 +1185,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B29">
@@ -1099,16 +1207,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C31">

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2AF35C-2C92-4FEB-9E89-60C4A3F39EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689F6FE-500A-4F7F-852E-132A66533718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="7740" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
-  <si>
-    <t>Location</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -198,6 +196,36 @@
   </si>
   <si>
     <t>cccc</t>
+  </si>
+  <si>
+    <t>Lower Slope</t>
+  </si>
+  <si>
+    <t>Lower Elevation</t>
+  </si>
+  <si>
+    <t>Higher Elevation</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Higher Slope</t>
+  </si>
+  <si>
+    <t>Curvature</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Hs3.steep.3</t>
+  </si>
+  <si>
+    <t>HS 1.steep.2</t>
+  </si>
+  <si>
+    <t>HS 1.steep.3</t>
   </si>
 </sst>
 </file>
@@ -659,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P14" sqref="P14"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,23 +701,22 @@
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="C1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -703,29 +730,28 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -734,33 +760,30 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -768,22 +791,28 @@
       <c r="F3">
         <v>32</v>
       </c>
+      <c r="G3">
+        <v>125.59</v>
+      </c>
       <c r="H3">
-        <v>125.59</v>
-      </c>
-      <c r="I3">
         <v>54.46</v>
       </c>
+      <c r="M3">
+        <v>11.09</v>
+      </c>
       <c r="N3">
-        <v>11.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.18574999999999875</v>
+      </c>
+      <c r="P3">
+        <v>-0.12725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -791,22 +820,28 @@
       <c r="F4">
         <v>50</v>
       </c>
+      <c r="G4">
+        <v>91.38</v>
+      </c>
       <c r="H4">
-        <v>91.38</v>
-      </c>
-      <c r="I4">
         <v>90.6</v>
       </c>
+      <c r="M4">
+        <v>15.46</v>
+      </c>
       <c r="N4">
-        <v>15.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.33400000000000035</v>
+      </c>
+      <c r="P4">
+        <v>-0.21400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -814,19 +849,25 @@
       <c r="F5">
         <v>24</v>
       </c>
+      <c r="G5">
+        <v>51.07</v>
+      </c>
       <c r="H5">
-        <v>51.07</v>
-      </c>
-      <c r="I5">
         <v>127.61</v>
       </c>
+      <c r="M5">
+        <v>33.840000000000003</v>
+      </c>
       <c r="N5">
-        <v>33.840000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.45800000000000124</v>
+      </c>
+      <c r="P5">
+        <v>-3.1625000000000014E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -834,19 +875,25 @@
       <c r="F6">
         <v>40</v>
       </c>
+      <c r="G6">
+        <v>25.18</v>
+      </c>
       <c r="H6">
-        <v>25.18</v>
-      </c>
-      <c r="I6">
         <v>151.08000000000001</v>
       </c>
+      <c r="M6">
+        <v>26.59</v>
+      </c>
       <c r="N6">
-        <v>26.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30587500000000034</v>
+      </c>
+      <c r="P6">
+        <v>-2.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -854,45 +901,57 @@
       <c r="F7">
         <v>16</v>
       </c>
+      <c r="G7">
+        <v>113.63</v>
+      </c>
       <c r="H7">
-        <v>113.63</v>
-      </c>
-      <c r="I7">
         <v>394.08</v>
       </c>
+      <c r="M7">
+        <v>16.89</v>
+      </c>
       <c r="N7">
-        <v>16.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.2559999999999974</v>
+      </c>
+      <c r="P7">
+        <v>-0.29912499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
+      <c r="G8">
+        <v>69.83</v>
+      </c>
       <c r="H8">
-        <v>69.83</v>
-      </c>
-      <c r="I8">
         <v>439.02</v>
       </c>
+      <c r="M8">
+        <v>24.36</v>
+      </c>
       <c r="N8">
-        <v>24.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.41212500000000035</v>
+      </c>
+      <c r="P8">
+        <v>-0.10125000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -900,39 +959,51 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>46.29</v>
+      </c>
       <c r="H9">
-        <v>46.29</v>
-      </c>
-      <c r="I9">
         <v>462.8</v>
       </c>
+      <c r="M9">
+        <v>25.38</v>
+      </c>
       <c r="N9">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.38700000000000045</v>
+      </c>
+      <c r="P9">
+        <v>0.21412499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>24.71</v>
       </c>
       <c r="H10">
-        <v>24.71</v>
-      </c>
-      <c r="I10">
         <v>484.6</v>
       </c>
+      <c r="M10">
+        <v>24.95</v>
+      </c>
       <c r="N10">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.20250000000000057</v>
+      </c>
+      <c r="P10">
+        <v>-5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -940,90 +1011,120 @@
       <c r="F11">
         <v>10</v>
       </c>
+      <c r="G11">
+        <v>29.38</v>
+      </c>
       <c r="H11">
-        <v>29.38</v>
-      </c>
-      <c r="I11">
         <v>469.16</v>
       </c>
+      <c r="M11">
+        <v>20.54</v>
+      </c>
       <c r="N11">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.33799999999999952</v>
+      </c>
+      <c r="P11">
+        <v>0.13537499999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>61.99</v>
+      </c>
+      <c r="H12">
+        <v>438.28</v>
+      </c>
+      <c r="M12">
+        <v>30.84</v>
+      </c>
+      <c r="N12">
+        <v>0.36537500000000023</v>
+      </c>
+      <c r="P12">
+        <v>-0.18725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>61.99</v>
-      </c>
-      <c r="I12">
-        <v>438.28</v>
-      </c>
-      <c r="N12">
-        <v>30.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="G13">
+        <v>111.31</v>
+      </c>
       <c r="H13">
-        <v>111.31</v>
-      </c>
-      <c r="I13">
         <v>395.22</v>
       </c>
+      <c r="M13">
+        <v>6.74</v>
+      </c>
       <c r="N13">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.15900000000000034</v>
+      </c>
+      <c r="P13">
+        <v>-0.38737500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>194.47</v>
+      </c>
+      <c r="H14">
+        <v>322.16000000000003</v>
+      </c>
+      <c r="M14">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N14">
+        <v>1.912499999999966E-2</v>
+      </c>
+      <c r="P14">
+        <v>4.2125000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H14">
-        <v>194.47</v>
-      </c>
-      <c r="I14">
-        <v>322.16000000000003</v>
-      </c>
-      <c r="N14">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F15">
         <v>28</v>
       </c>
+      <c r="G15">
+        <v>464.36</v>
+      </c>
       <c r="H15">
-        <v>464.36</v>
-      </c>
-      <c r="I15">
         <v>51.29</v>
       </c>
+      <c r="M15">
+        <v>4.68</v>
+      </c>
       <c r="N15">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.10374999999999943</v>
+      </c>
+      <c r="P15">
+        <v>-0.14424999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1031,19 +1132,25 @@
       <c r="F16">
         <v>34</v>
       </c>
+      <c r="G16">
+        <v>336.62</v>
+      </c>
       <c r="H16">
-        <v>336.62</v>
-      </c>
-      <c r="I16">
         <v>85.64</v>
       </c>
+      <c r="M16">
+        <v>10.57</v>
+      </c>
       <c r="N16">
-        <v>10.57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.11525000000000034</v>
+      </c>
+      <c r="P16">
+        <v>-5.2249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1051,50 +1158,68 @@
       <c r="F17">
         <v>24</v>
       </c>
+      <c r="G17">
+        <v>259.38</v>
+      </c>
       <c r="H17">
-        <v>259.38</v>
-      </c>
-      <c r="I17">
         <v>171.43</v>
       </c>
+      <c r="M17">
+        <v>6.78</v>
+      </c>
       <c r="N17">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.24062500000000001</v>
+      </c>
+      <c r="P17">
+        <v>-0.10700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>9</v>
       </c>
+      <c r="G18">
+        <v>227.07</v>
+      </c>
       <c r="H18">
-        <v>227.07</v>
-      </c>
-      <c r="I18">
         <v>141.91999999999999</v>
       </c>
+      <c r="M18">
+        <v>24.23</v>
+      </c>
       <c r="N18">
-        <v>24.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.36162500000000081</v>
+      </c>
+      <c r="P18">
+        <v>-9.7499999999999962E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>185.16</v>
       </c>
       <c r="H20">
-        <v>185.16</v>
-      </c>
-      <c r="I20">
         <v>100.05</v>
       </c>
+      <c r="M20">
+        <v>19.54</v>
+      </c>
       <c r="N20">
-        <v>19.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.31212500000000032</v>
+      </c>
+      <c r="P20">
+        <v>-0.16275000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>6.5</v>
@@ -1108,10 +1233,25 @@
       <c r="E22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>101.26</v>
+      </c>
+      <c r="H22">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="M22">
+        <v>6.64</v>
+      </c>
+      <c r="N22">
+        <v>0.10625</v>
+      </c>
+      <c r="P22">
+        <v>-0.17775000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>37</v>
@@ -1125,13 +1265,28 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>51.92</v>
+      </c>
+      <c r="H23">
+        <v>84.24</v>
+      </c>
+      <c r="M23">
+        <v>18.14</v>
+      </c>
+      <c r="N23">
+        <v>0.38974999999999793</v>
+      </c>
+      <c r="P23">
+        <v>-0.434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1142,13 +1297,28 @@
       <c r="E24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>169.52</v>
+      </c>
+      <c r="H24">
+        <v>57.31</v>
+      </c>
+      <c r="M24">
+        <v>1.4</v>
+      </c>
+      <c r="N24">
+        <v>1.8999999999999774E-2</v>
+      </c>
+      <c r="P24">
+        <v>-3.0374999999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1159,43 +1329,106 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>116.31</v>
+      </c>
+      <c r="H25">
+        <v>95.93</v>
+      </c>
+      <c r="M25">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="N25">
+        <v>0.36737500000000123</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25">
+        <v>-0.55337499999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>97.44</v>
+      </c>
+      <c r="H26">
+        <v>119.23</v>
+      </c>
+      <c r="M26">
+        <v>23.25</v>
+      </c>
+      <c r="N26">
+        <v>0.53524999999999923</v>
+      </c>
+      <c r="P26">
+        <v>-0.35124999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>241.53</v>
+      </c>
+      <c r="H27">
+        <v>25.66</v>
+      </c>
+      <c r="M27">
+        <v>8.69</v>
+      </c>
+      <c r="N27">
+        <v>0.21212500000000034</v>
+      </c>
+      <c r="P27">
+        <v>-0.37187500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>194.29</v>
+      </c>
+      <c r="H28">
+        <v>56.92</v>
+      </c>
+      <c r="M28">
+        <v>23.16</v>
+      </c>
+      <c r="N28">
+        <v>0.42325000000000157</v>
+      </c>
+      <c r="P28">
+        <v>-0.13974999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -1206,24 +1439,69 @@
       <c r="F29">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>211.51</v>
+      </c>
+      <c r="H29">
+        <v>52.57</v>
+      </c>
+      <c r="M29">
+        <v>20.99</v>
+      </c>
+      <c r="N29">
+        <v>0.32100000000000078</v>
+      </c>
+      <c r="P29">
+        <v>-0.13187500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>177.4</v>
+      </c>
+      <c r="H30">
+        <v>68.89</v>
+      </c>
+      <c r="M30">
+        <v>6.56</v>
+      </c>
+      <c r="N30">
+        <v>9.8749999999998297E-2</v>
+      </c>
+      <c r="P30">
+        <v>-0.22750000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>25</v>
       </c>
       <c r="F31">
         <v>32</v>
+      </c>
+      <c r="G31">
+        <v>136.66999999999999</v>
+      </c>
+      <c r="H31">
+        <v>110.33</v>
+      </c>
+      <c r="M31">
+        <v>21.48</v>
+      </c>
+      <c r="N31">
+        <v>0.37874999999999942</v>
+      </c>
+      <c r="P31">
+        <v>-0.23825000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1234,4 +1512,748 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA310660-D605-4205-8E2A-C9F13A4AEB76}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1656.47</v>
+      </c>
+      <c r="C2">
+        <v>1671.33</v>
+      </c>
+      <c r="D2">
+        <f>(C2-B2)/80</f>
+        <v>0.18574999999999875</v>
+      </c>
+      <c r="E2">
+        <v>14.29</v>
+      </c>
+      <c r="F2">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G2">
+        <f>(F2-E2)/80</f>
+        <v>-0.12725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1640.56</v>
+      </c>
+      <c r="C3">
+        <v>1667.28</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D30" si="0">(C3-B3)/80</f>
+        <v>0.33400000000000035</v>
+      </c>
+      <c r="E3">
+        <v>28.01</v>
+      </c>
+      <c r="F3">
+        <v>10.89</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G30" si="1">(F3-E3)/80</f>
+        <v>-0.21400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1622.03</v>
+      </c>
+      <c r="C4">
+        <v>1658.67</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.45800000000000124</v>
+      </c>
+      <c r="E4">
+        <v>20.18</v>
+      </c>
+      <c r="F4">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-3.1625000000000014E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1626.32</v>
+      </c>
+      <c r="C5">
+        <v>1650.79</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.30587500000000034</v>
+      </c>
+      <c r="E5">
+        <v>24.02</v>
+      </c>
+      <c r="F5">
+        <v>22.34</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-2.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1614.13</v>
+      </c>
+      <c r="C6">
+        <v>1634.61</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.2559999999999974</v>
+      </c>
+      <c r="E6">
+        <v>27.83</v>
+      </c>
+      <c r="F6">
+        <v>3.9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.29912499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1594.18</v>
+      </c>
+      <c r="C7">
+        <v>1627.15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.41212500000000035</v>
+      </c>
+      <c r="E7">
+        <v>24.39</v>
+      </c>
+      <c r="F7">
+        <v>16.29</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.10125000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1588.43</v>
+      </c>
+      <c r="C8">
+        <v>1619.39</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.38700000000000045</v>
+      </c>
+      <c r="E8">
+        <v>3.7</v>
+      </c>
+      <c r="F8">
+        <v>20.83</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.21412499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1592.95</v>
+      </c>
+      <c r="C9">
+        <v>1609.15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.20250000000000057</v>
+      </c>
+      <c r="E9">
+        <v>27.7</v>
+      </c>
+      <c r="F9">
+        <v>23.22</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1547.54</v>
+      </c>
+      <c r="C10">
+        <v>1574.58</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.33799999999999952</v>
+      </c>
+      <c r="E10">
+        <v>6.66</v>
+      </c>
+      <c r="F10">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.13537499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1552.47</v>
+      </c>
+      <c r="C11">
+        <v>1581.7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.36537500000000023</v>
+      </c>
+      <c r="E11">
+        <v>19.55</v>
+      </c>
+      <c r="F11">
+        <v>4.57</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.18725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1573.34</v>
+      </c>
+      <c r="C12">
+        <v>1586.06</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.15900000000000034</v>
+      </c>
+      <c r="E12">
+        <v>34.06</v>
+      </c>
+      <c r="F12">
+        <v>3.07</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.38737500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1586.14</v>
+      </c>
+      <c r="C13">
+        <v>1587.67</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.912499999999966E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.16</v>
+      </c>
+      <c r="F13">
+        <v>6.53</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4.2125000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1630.65</v>
+      </c>
+      <c r="C14">
+        <v>1638.95</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.10374999999999943</v>
+      </c>
+      <c r="E14">
+        <v>12.5</v>
+      </c>
+      <c r="F14">
+        <v>0.96</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-0.14424999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1619.36</v>
+      </c>
+      <c r="C15">
+        <v>1628.58</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.11525000000000034</v>
+      </c>
+      <c r="E15">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F15">
+        <v>5.52</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-5.2249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1599.45</v>
+      </c>
+      <c r="C16">
+        <v>1618.7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.24062500000000001</v>
+      </c>
+      <c r="E16">
+        <v>17.8</v>
+      </c>
+      <c r="F16">
+        <v>9.24</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-0.10700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1568.49</v>
+      </c>
+      <c r="C17">
+        <v>1597.42</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.36162500000000081</v>
+      </c>
+      <c r="E17">
+        <v>25.58</v>
+      </c>
+      <c r="F17">
+        <v>17.78</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-9.7499999999999962E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1584.79</v>
+      </c>
+      <c r="C19">
+        <v>1609.76</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.31212500000000032</v>
+      </c>
+      <c r="E19">
+        <v>26.35</v>
+      </c>
+      <c r="F19">
+        <v>13.33</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-0.16275000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="D20">
+        <f>(C20-B20)/80</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1663.42</v>
+      </c>
+      <c r="C21">
+        <v>1671.92</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.10625</v>
+      </c>
+      <c r="E21">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F21">
+        <v>2.29</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.17775000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1639.16</v>
+      </c>
+      <c r="C22">
+        <v>1670.34</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.38974999999999793</v>
+      </c>
+      <c r="E22">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="F22">
+        <v>2.94</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-0.434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1664.45</v>
+      </c>
+      <c r="C23">
+        <v>1665.97</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999774E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.88</v>
+      </c>
+      <c r="F23">
+        <v>1.45</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-3.0374999999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1634.06</v>
+      </c>
+      <c r="C24">
+        <v>1663.45</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.36737500000000123</v>
+      </c>
+      <c r="E24">
+        <v>47.69</v>
+      </c>
+      <c r="F24">
+        <v>3.42</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-0.55337499999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>1619.44</v>
+      </c>
+      <c r="C25">
+        <v>1662.26</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.53524999999999923</v>
+      </c>
+      <c r="E25">
+        <v>37.94</v>
+      </c>
+      <c r="F25">
+        <v>9.84</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-0.35124999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>1638.98</v>
+      </c>
+      <c r="C26">
+        <v>1655.95</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.21212500000000034</v>
+      </c>
+      <c r="E26">
+        <v>36.61</v>
+      </c>
+      <c r="F26">
+        <v>6.86</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-0.37187500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>1612.37</v>
+      </c>
+      <c r="C27">
+        <v>1646.23</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.42325000000000157</v>
+      </c>
+      <c r="E27">
+        <v>27.74</v>
+      </c>
+      <c r="F27">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-0.13974999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>1625.03</v>
+      </c>
+      <c r="C28">
+        <v>1650.71</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.32100000000000078</v>
+      </c>
+      <c r="E28">
+        <v>21.62</v>
+      </c>
+      <c r="F28">
+        <v>11.07</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-0.13187500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>1652.39</v>
+      </c>
+      <c r="C29">
+        <v>1660.29</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>9.8749999999998297E-2</v>
+      </c>
+      <c r="E29">
+        <v>22.62</v>
+      </c>
+      <c r="F29">
+        <v>4.42</v>
+      </c>
+      <c r="G29">
+        <f>(F29-E29)/80</f>
+        <v>-0.22750000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>1628.66</v>
+      </c>
+      <c r="C30">
+        <v>1658.96</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.37874999999999942</v>
+      </c>
+      <c r="E30">
+        <v>26.14</v>
+      </c>
+      <c r="F30">
+        <v>7.08</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-0.23825000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689F6FE-500A-4F7F-852E-132A66533718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50485CEA-B946-45F5-938D-225B44FA73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="21390" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Curvature</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Hs3.steep.3</t>
@@ -679,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,8 +687,8 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,13 +700,13 @@
     <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1187,6 +1184,18 @@
       <c r="H18">
         <v>141.91999999999999</v>
       </c>
+      <c r="I18">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.93</v>
+      </c>
+      <c r="K18">
+        <v>2.44</v>
+      </c>
+      <c r="L18">
+        <v>1.2</v>
+      </c>
       <c r="M18">
         <v>24.23</v>
       </c>
@@ -1341,9 +1350,6 @@
       <c r="N25">
         <v>0.36737500000000123</v>
       </c>
-      <c r="O25" t="s">
-        <v>59</v>
-      </c>
       <c r="P25">
         <v>-0.55337499999999995</v>
       </c>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
@@ -1405,7 +1411,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>1638.98</v>
@@ -2155,7 +2161,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>1612.37</v>
@@ -2180,7 +2186,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>1625.03</v>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50485CEA-B946-45F5-938D-225B44FA73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8B48D-19C1-4ABA-A3F4-A4703099F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="21390" windowHeight="12780" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-72" yWindow="12" windowWidth="23040" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,30 +687,30 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="C1" s="8" t="s">
         <v>38</v>
@@ -728,7 +728,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -778,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>-0.12725</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -833,7 +833,7 @@
         <v>-0.21400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -862,7 +862,7 @@
         <v>-3.1625000000000014E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -888,7 +888,7 @@
         <v>-2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -914,7 +914,7 @@
         <v>-0.29912499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -943,7 +943,7 @@
         <v>-0.10125000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0.21412499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -998,7 +998,7 @@
         <v>-5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.13537499999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>-0.18725</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>-0.38737500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4.2125000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>-0.14424999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>-5.2249999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>-0.10700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>-9.7499999999999962E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>-0.16275000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>-0.17775000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>-0.434</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>-3.0374999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>-0.55337499999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>-0.35124999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>59</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>-0.37187500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>-0.13974999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>-0.13187500000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>-0.22750000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -1530,16 +1530,16 @@
       <selection pane="topRight" activeCell="G21" sqref="G21:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>-0.12725</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>-0.21400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>-3.1625000000000014E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>-2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>-0.29912499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>-0.10125000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0.21412499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>-5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0.13537499999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>-0.18725</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>-0.38737500000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4.2125000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>-0.14424999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-5.2249999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>-0.10700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>-9.7499999999999962E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>-0.16275000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="D20">
         <f>(C20-B20)/80</f>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>-0.17775000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>-0.434</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>-3.0374999999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>-0.55337499999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>-0.35124999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>59</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>-0.37187500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>-0.13974999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>61</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>-0.13187500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>-0.22750000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8B48D-19C1-4ABA-A3F4-A4703099F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6521D9B9-4469-40A6-B79A-EA00EABC27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72" yWindow="12" windowWidth="23040" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-96" yWindow="360" windowWidth="11004" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6521D9B9-4469-40A6-B79A-EA00EABC27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C407302-2AF2-41A1-B81D-7010818AB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="360" windowWidth="11004" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-84" yWindow="144" windowWidth="12480" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1524,10 +1524,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA310660-D605-4205-8E2A-C9F13A4AEB76}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21:G30"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C407302-2AF2-41A1-B81D-7010818AB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1C439-6F22-4AA2-8CA4-AF390920F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="144" windowWidth="12480" windowHeight="12120" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12564" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -66,12 +66,6 @@
     <t>80 m slope</t>
   </si>
   <si>
-    <t>Downslope outcrop thickness</t>
-  </si>
-  <si>
-    <t>Upslope outcrop thickness</t>
-  </si>
-  <si>
     <t>Hs3.4</t>
   </si>
   <si>
@@ -223,6 +217,9 @@
   </si>
   <si>
     <t>HS 1.steep.3</t>
+  </si>
+  <si>
+    <t>&lt; outcrop thickness</t>
   </si>
 </sst>
 </file>
@@ -688,12 +685,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -701,9 +698,9 @@
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" customWidth="1"/>
     <col min="9" max="9" width="37.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.88671875" customWidth="1"/>
@@ -713,7 +710,7 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -733,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -757,13 +754,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>5</v>
@@ -780,7 +777,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -806,10 +803,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -823,6 +820,18 @@
       <c r="H4">
         <v>90.6</v>
       </c>
+      <c r="I4">
+        <v>8.25</v>
+      </c>
+      <c r="J4">
+        <v>0.72</v>
+      </c>
+      <c r="K4">
+        <v>3.12</v>
+      </c>
+      <c r="L4">
+        <v>0.48</v>
+      </c>
       <c r="M4">
         <v>15.46</v>
       </c>
@@ -835,10 +844,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -852,6 +861,18 @@
       <c r="H5">
         <v>127.61</v>
       </c>
+      <c r="I5">
+        <v>5.93</v>
+      </c>
+      <c r="J5">
+        <v>0.71</v>
+      </c>
+      <c r="K5">
+        <v>1.62</v>
+      </c>
+      <c r="L5">
+        <v>1.26</v>
+      </c>
       <c r="M5">
         <v>33.840000000000003</v>
       </c>
@@ -864,7 +885,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -878,6 +899,18 @@
       <c r="H6">
         <v>151.08000000000001</v>
       </c>
+      <c r="I6">
+        <v>1.06</v>
+      </c>
+      <c r="J6">
+        <v>0.51</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
+      <c r="L6">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="M6">
         <v>26.59</v>
       </c>
@@ -890,7 +923,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -916,13 +949,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -945,10 +978,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -974,13 +1007,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>24.71</v>
@@ -1000,7 +1033,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -1026,13 +1059,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>61.99</v>
@@ -1052,10 +1085,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1078,7 +1111,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>194.47</v>
@@ -1098,7 +1131,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>28</v>
@@ -1121,7 +1154,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1147,7 +1180,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1173,7 +1206,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -1208,7 +1241,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>185.16</v>
@@ -1228,7 +1261,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>6.5</v>
@@ -1260,7 +1293,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>37</v>
@@ -1292,10 +1325,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1324,10 +1357,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1356,10 +1389,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1382,16 +1415,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27">
         <v>241.53</v>
@@ -1411,7 +1444,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -1434,7 +1467,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -1463,7 +1496,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1486,7 +1519,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -1544,27 +1577,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1656.47</v>
@@ -1589,7 +1622,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1640.56</v>
@@ -1614,7 +1647,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1622.03</v>
@@ -1639,7 +1672,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1626.32</v>
@@ -1664,7 +1697,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1614.13</v>
@@ -1689,7 +1722,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1594.18</v>
@@ -1714,7 +1747,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1588.43</v>
@@ -1739,7 +1772,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1592.95</v>
@@ -1764,7 +1797,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1547.54</v>
@@ -1789,7 +1822,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1552.47</v>
@@ -1814,7 +1847,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1573.34</v>
@@ -1839,7 +1872,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1586.14</v>
@@ -1864,7 +1897,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1630.65</v>
@@ -1889,7 +1922,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>1619.36</v>
@@ -1914,7 +1947,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1599.45</v>
@@ -1939,7 +1972,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1568.49</v>
@@ -1975,7 +2008,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1584.79</v>
@@ -2011,7 +2044,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1663.42</v>
@@ -2036,7 +2069,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1639.16</v>
@@ -2061,7 +2094,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1664.45</v>
@@ -2086,7 +2119,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>1634.06</v>
@@ -2111,7 +2144,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>1619.44</v>
@@ -2136,7 +2169,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>1638.98</v>
@@ -2161,7 +2194,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>1612.37</v>
@@ -2186,7 +2219,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>1625.03</v>
@@ -2211,7 +2244,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>1652.39</v>
@@ -2236,7 +2269,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>1628.66</v>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1C439-6F22-4AA2-8CA4-AF390920F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B84CCC4-4068-4FC0-8C7E-444A9C2EFF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12564" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
@@ -36,6 +36,59 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sophia</author>
+    <author>tc={564D6E31-AE58-4D81-AC58-1A304551AA1C}</author>
+    <author>tc={24AC5A2D-01E0-4389-9D52-157A1D2EF760}</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{5B7412A3-D946-42D6-BF64-CC9103A8CF77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sophia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This soil put is right in the middle of an outcrop
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{564D6E31-AE58-4D81-AC58-1A304551AA1C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This point is on the edge of ortho/DEM, hard to get values</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{24AC5A2D-01E0-4389-9D52-157A1D2EF760}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This point is off the edge of the ortho/DEM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
@@ -226,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +300,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,6 +448,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Brieler, Sophia T" id="{3C00207A-793E-4989-8468-C3D416A15065}" userId="S::sbrieler@tulane.edu::0a4a75ea-7397-44a8-b866-7dd7503034f8" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,19 +745,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A14" dT="2023-02-06T20:43:28.95" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{564D6E31-AE58-4D81-AC58-1A304551AA1C}">
+    <text>This point is on the edge of ortho/DEM, hard to get values</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2023-02-06T20:43:48.73" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{24AC5A2D-01E0-4389-9D52-157A1D2EF760}">
+    <text>This point is off the edge of the ortho/DEM</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,6 +874,18 @@
       <c r="H3">
         <v>54.46</v>
       </c>
+      <c r="I3">
+        <v>11.2</v>
+      </c>
+      <c r="J3">
+        <v>0.92</v>
+      </c>
+      <c r="K3">
+        <v>2.27</v>
+      </c>
+      <c r="L3">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="M3">
         <v>11.09</v>
       </c>
@@ -937,6 +1032,18 @@
       <c r="H7">
         <v>394.08</v>
       </c>
+      <c r="I7">
+        <v>7.68</v>
+      </c>
+      <c r="J7">
+        <v>0.61</v>
+      </c>
+      <c r="K7">
+        <v>4.3</v>
+      </c>
+      <c r="L7">
+        <v>0.71</v>
+      </c>
       <c r="M7">
         <v>16.89</v>
       </c>
@@ -966,6 +1073,18 @@
       <c r="H8">
         <v>439.02</v>
       </c>
+      <c r="I8">
+        <v>0.45</v>
+      </c>
+      <c r="J8">
+        <v>1.41</v>
+      </c>
+      <c r="K8">
+        <v>11.84</v>
+      </c>
+      <c r="L8">
+        <v>1.25</v>
+      </c>
       <c r="M8">
         <v>24.36</v>
       </c>
@@ -995,6 +1114,18 @@
       <c r="H9">
         <v>462.8</v>
       </c>
+      <c r="I9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.79</v>
+      </c>
+      <c r="K9">
+        <v>2.89</v>
+      </c>
+      <c r="L9">
+        <v>0.43</v>
+      </c>
       <c r="M9">
         <v>25.38</v>
       </c>
@@ -1021,6 +1152,18 @@
       <c r="H10">
         <v>484.6</v>
       </c>
+      <c r="I10">
+        <v>3.74</v>
+      </c>
+      <c r="J10">
+        <v>1.34</v>
+      </c>
+      <c r="K10">
+        <v>19.2</v>
+      </c>
+      <c r="L10">
+        <v>0.79</v>
+      </c>
       <c r="M10">
         <v>24.95</v>
       </c>
@@ -1047,6 +1190,18 @@
       <c r="H11">
         <v>469.16</v>
       </c>
+      <c r="I11">
+        <v>1.86</v>
+      </c>
+      <c r="J11">
+        <v>1.17</v>
+      </c>
+      <c r="K11">
+        <v>5.22</v>
+      </c>
+      <c r="L11">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="M11">
         <v>20.54</v>
       </c>
@@ -1073,6 +1228,12 @@
       <c r="H12">
         <v>438.28</v>
       </c>
+      <c r="J12">
+        <v>5.73</v>
+      </c>
+      <c r="L12">
+        <v>5.73</v>
+      </c>
       <c r="M12">
         <v>30.84</v>
       </c>
@@ -1099,6 +1260,18 @@
       <c r="H13">
         <v>395.22</v>
       </c>
+      <c r="I13">
+        <v>5.53</v>
+      </c>
+      <c r="J13">
+        <v>0.32</v>
+      </c>
+      <c r="K13">
+        <v>3.41</v>
+      </c>
+      <c r="L13">
+        <v>0.35</v>
+      </c>
       <c r="M13">
         <v>6.74</v>
       </c>
@@ -1168,6 +1341,18 @@
       <c r="H16">
         <v>85.64</v>
       </c>
+      <c r="I16">
+        <v>9.91</v>
+      </c>
+      <c r="J16">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K16">
+        <v>2.95</v>
+      </c>
+      <c r="L16">
+        <v>0.59</v>
+      </c>
       <c r="M16">
         <v>10.57</v>
       </c>
@@ -1194,6 +1379,18 @@
       <c r="H17">
         <v>171.43</v>
       </c>
+      <c r="I17">
+        <v>3.07</v>
+      </c>
+      <c r="J17">
+        <v>0.93</v>
+      </c>
+      <c r="K17">
+        <v>12.18</v>
+      </c>
+      <c r="L17">
+        <v>0.38</v>
+      </c>
       <c r="M17">
         <v>6.78</v>
       </c>
@@ -1218,16 +1415,16 @@
         <v>141.91999999999999</v>
       </c>
       <c r="I18">
-        <v>4.2300000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="J18">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="K18">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="L18">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="M18">
         <v>24.23</v>
@@ -1248,6 +1445,18 @@
       </c>
       <c r="H20">
         <v>100.05</v>
+      </c>
+      <c r="I20">
+        <v>1.68</v>
+      </c>
+      <c r="J20">
+        <v>0.6</v>
+      </c>
+      <c r="K20">
+        <v>1.44</v>
+      </c>
+      <c r="L20">
+        <v>0.56000000000000005</v>
       </c>
       <c r="M20">
         <v>19.54</v>
@@ -1550,6 +1759,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B84CCC4-4068-4FC0-8C7E-444A9C2EFF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5F4CC-4350-476A-9349-27B0220C473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12564" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
@@ -42,6 +42,10 @@
     <author>Sophia</author>
     <author>tc={564D6E31-AE58-4D81-AC58-1A304551AA1C}</author>
     <author>tc={24AC5A2D-01E0-4389-9D52-157A1D2EF760}</author>
+    <author>tc={68888920-769C-43C4-89F1-6AF92A61A1C5}</author>
+    <author>tc={3096B471-F14E-481A-8E4D-04B3A8360A3B}</author>
+    <author>tc={6B2056C4-5FF7-4442-BC9A-05B0EE155E94}</author>
+    <author>tc={BB446C5E-1200-48FF-AA32-F48111E4EF7D}</author>
   </authors>
   <commentList>
     <comment ref="A12" authorId="0" shapeId="0" xr:uid="{5B7412A3-D946-42D6-BF64-CC9103A8CF77}">
@@ -85,12 +89,44 @@
     This point is off the edge of the ortho/DEM</t>
       </text>
     </comment>
+    <comment ref="A22" authorId="3" shapeId="0" xr:uid="{68888920-769C-43C4-89F1-6AF92A61A1C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Off edge of Ortho</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="4" shapeId="0" xr:uid="{3096B471-F14E-481A-8E4D-04B3A8360A3B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Off edge of Ortho</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="5" shapeId="0" xr:uid="{6B2056C4-5FF7-4442-BC9A-05B0EE155E94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Off edge of Ortho</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="6" shapeId="0" xr:uid="{BB446C5E-1200-48FF-AA32-F48111E4EF7D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Off the edge of the Ortho</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -273,6 +309,12 @@
   </si>
   <si>
     <t>&lt; outcrop thickness</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>32.234341, -104.701547</t>
   </si>
 </sst>
 </file>
@@ -759,16 +801,28 @@
   <threadedComment ref="A15" dT="2023-02-06T20:43:48.73" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{24AC5A2D-01E0-4389-9D52-157A1D2EF760}">
     <text>This point is off the edge of the ortho/DEM</text>
   </threadedComment>
+  <threadedComment ref="A22" dT="2023-02-24T19:38:21.52" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{68888920-769C-43C4-89F1-6AF92A61A1C5}">
+    <text>Off edge of Ortho</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2023-02-24T19:38:33.28" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{3096B471-F14E-481A-8E4D-04B3A8360A3B}">
+    <text>Off edge of Ortho</text>
+  </threadedComment>
+  <threadedComment ref="A24" dT="2023-02-24T19:28:28.42" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{6B2056C4-5FF7-4442-BC9A-05B0EE155E94}">
+    <text>Off edge of Ortho</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2023-02-24T19:20:27.44" personId="{3C00207A-793E-4989-8468-C3D416A15065}" id="{BB446C5E-1200-48FF-AA32-F48111E4EF7D}">
+    <text>Off the edge of the Ortho</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,6 +1640,18 @@
       <c r="H25">
         <v>95.93</v>
       </c>
+      <c r="I25">
+        <v>3.04</v>
+      </c>
+      <c r="J25">
+        <v>0.79</v>
+      </c>
+      <c r="K25">
+        <v>1.07</v>
+      </c>
+      <c r="L25">
+        <v>0.53</v>
+      </c>
       <c r="M25">
         <v>18.079999999999998</v>
       </c>
@@ -1612,6 +1678,18 @@
       <c r="H26">
         <v>119.23</v>
       </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26">
+        <v>3.95</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+      <c r="L26">
+        <v>0.37</v>
+      </c>
       <c r="M26">
         <v>23.25</v>
       </c>
@@ -1641,6 +1719,18 @@
       <c r="H27">
         <v>25.66</v>
       </c>
+      <c r="I27">
+        <v>4.95</v>
+      </c>
+      <c r="J27">
+        <v>0.26</v>
+      </c>
+      <c r="K27">
+        <v>0.2</v>
+      </c>
+      <c r="L27">
+        <v>0.11</v>
+      </c>
       <c r="M27">
         <v>8.69</v>
       </c>
@@ -1664,6 +1754,18 @@
       <c r="H28">
         <v>56.92</v>
       </c>
+      <c r="I28">
+        <v>8.19</v>
+      </c>
+      <c r="J28">
+        <v>2.7</v>
+      </c>
+      <c r="K28">
+        <v>10.09</v>
+      </c>
+      <c r="L28">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="M28">
         <v>23.16</v>
       </c>
@@ -1693,6 +1795,18 @@
       <c r="H29">
         <v>52.57</v>
       </c>
+      <c r="I29">
+        <v>4.32</v>
+      </c>
+      <c r="J29">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K29">
+        <v>6.8</v>
+      </c>
+      <c r="L29">
+        <v>0.71</v>
+      </c>
       <c r="M29">
         <v>20.99</v>
       </c>
@@ -1742,6 +1856,18 @@
       <c r="H31">
         <v>110.33</v>
       </c>
+      <c r="I31">
+        <v>7.99</v>
+      </c>
+      <c r="J31">
+        <v>0.54</v>
+      </c>
+      <c r="K31">
+        <v>1.47</v>
+      </c>
+      <c r="L31">
+        <v>0.18</v>
+      </c>
       <c r="M31">
         <v>21.48</v>
       </c>
@@ -1750,6 +1876,23 @@
       </c>
       <c r="P31">
         <v>-0.23825000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33">
+        <v>0.98</v>
+      </c>
+      <c r="J33">
+        <v>1.38</v>
+      </c>
+      <c r="K33">
+        <v>6.92</v>
+      </c>
+      <c r="L33">
+        <v>5.65</v>
       </c>
     </row>
   </sheetData>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia.EMMA\Documents\GitHub\hillslope-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5F4CC-4350-476A-9349-27B0220C473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8DC9B-091B-482D-A786-67B433F544C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12564" windowHeight="16560" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sophia:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This soil put is right in the middle of an outcrop
@@ -347,14 +347,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -821,8 +821,8 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I35" sqref="I35"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8DC9B-091B-482D-A786-67B433F544C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93EF745-99B4-47BD-A140-38ADDC40D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -257,9 +257,6 @@
     <t>35, 5, 11</t>
   </si>
   <si>
-    <t>38 maybe greater</t>
-  </si>
-  <si>
     <t>ONLY BEDROCK</t>
   </si>
   <si>
@@ -315,6 +312,15 @@
   </si>
   <si>
     <t>32.234341, -104.701547</t>
+  </si>
+  <si>
+    <t>depth to bedrock</t>
+  </si>
+  <si>
+    <t>stddev</t>
+  </si>
+  <si>
+    <t>stdev</t>
   </si>
 </sst>
 </file>
@@ -490,6 +496,1027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>no saprolite</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ONLY BEDROCK</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>EXPOSED BEDROCK</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>54.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>439.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>462.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>484.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>469.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>395.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.57</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F4A-4114-9D1B-76A1F71D875C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1811290880"/>
+        <c:axId val="1811292320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1811290880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811292320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1811292320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811290880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>766704</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2177815</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9764D061-DD6A-0207-2EED-C341C3D68CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H20" sqref="H20:L24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="81" zoomScaleNormal="102" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +1861,7 @@
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="17.77734375" customWidth="1"/>
@@ -891,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>5</v>
@@ -1154,7 +2181,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1197,8 +2224,8 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
+      <c r="F10">
+        <v>38</v>
       </c>
       <c r="G10">
         <v>24.71</v>
@@ -1271,10 +2298,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>61.99</v>
@@ -1303,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1679,7 +2706,7 @@
         <v>119.23</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>3.95</v>
@@ -1702,16 +2729,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>241.53</v>
@@ -1743,7 +2770,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -1778,7 +2805,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -1819,7 +2846,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1842,7 +2869,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -1880,7 +2907,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33">
         <v>0.98</v>
@@ -1894,6 +2921,54 @@
       <c r="L33">
         <v>5.65</v>
       </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(C3:E31)</f>
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <f>STDEV(C3:E31)</f>
+        <v>5.2990291700393142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <f>AVERAGE(F3:F31)</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <f>STDEV(F3:F31)</f>
+        <v>15.539084847401305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1902,7 +2977,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1930,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2522,7 +3598,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1638.98</v>
@@ -2547,7 +3623,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>1612.37</v>
@@ -2572,7 +3648,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>1625.03</v>
@@ -2597,7 +3673,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>1652.39</v>
@@ -2622,7 +3698,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>1628.66</v>

--- a/data/soilpit_data.xlsx
+++ b/data/soilpit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93EF745-99B4-47BD-A140-38ADDC40D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7AE6B-3B46-491F-8F3D-680E2EEB1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{128AE9C5-A4E0-44D6-AEE2-927BDFCAF568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -321,13 +321,16 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; outcrop thickness </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +364,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -481,6 +492,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,9 +1860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C229D-DDB1-496A-9716-7D4F09DB5DBD}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="81" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="102" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,7 +1875,7 @@
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" customWidth="1"/>
     <col min="9" max="9" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="17.77734375" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1918,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -2482,38 +2495,38 @@
         <v>-0.10700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>9</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>227.07</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>141.91999999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="12">
         <v>4.5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="12">
         <v>0.85</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="12">
         <v>2.19</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="12">
         <v>0.75</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="12">
         <v>24.23</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="12">
         <v>0.36162500000000081</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="12">
         <v>-9.7499999999999962E-2</v>
       </c>
     </row>
